--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BD/10/seed5/result_data_KNN.xlsx
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.322</v>
+        <v>-7.135</v>
       </c>
     </row>
     <row r="12">
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.566000000000001</v>
+        <v>4.951000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -760,7 +760,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.616</v>
+        <v>-8.102</v>
       </c>
     </row>
     <row r="24">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.472</v>
+        <v>-8.061</v>
       </c>
     </row>
     <row r="29">
@@ -880,13 +880,13 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.566</v>
+        <v>5.924999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.172000000000001</v>
+        <v>-7.689</v>
       </c>
     </row>
     <row r="33">
@@ -914,7 +914,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.988</v>
+        <v>-7.977999999999999</v>
       </c>
     </row>
     <row r="35">
@@ -936,7 +936,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.053999999999998</v>
+        <v>8.599</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -964,7 +964,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.824</v>
+        <v>5.909999999999999</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1026,7 +1026,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.164000000000001</v>
+        <v>-8.232000000000001</v>
       </c>
     </row>
     <row r="43">
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.18</v>
+        <v>6.248</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1188,13 +1188,13 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.754</v>
+        <v>4.821</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.44</v>
+        <v>-8.167999999999997</v>
       </c>
     </row>
     <row r="55">
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.763</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.180000000000001</v>
+        <v>5.48</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.404</v>
+        <v>5.259</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1440,7 +1440,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.407999999999999</v>
+        <v>5.235</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.346</v>
+        <v>5.564</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1796,7 +1796,7 @@
         <v>-10.47</v>
       </c>
       <c r="D97" t="n">
-        <v>-7.703999999999999</v>
+        <v>-7.544999999999999</v>
       </c>
     </row>
     <row r="98">
@@ -1818,13 +1818,13 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>4.708</v>
+        <v>4.619999999999999</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.184000000000001</v>
+        <v>-8.374000000000001</v>
       </c>
     </row>
     <row r="100">
@@ -1852,7 +1852,7 @@
         <v>-15.77</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.390000000000001</v>
+        <v>-7.784999999999999</v>
       </c>
     </row>
     <row r="102">
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>8.353999999999999</v>
+        <v>8.094000000000001</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
